--- a/capiq_data/in_process_data/IQ27444752.xlsx
+++ b/capiq_data/in_process_data/IQ27444752.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1BFE1C-051D-4262-822F-429113B46A34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEA7C0F-1DEC-417F-996B-BAD67CACEA91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"becde74e-160d-4853-88fb-b2c81b80d380"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"f57828d0-d87c-4057-bf0e-a6b540aaaab9"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$50</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$50</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$50</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$50</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$50</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$50</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$50</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$50</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$50</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$50</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$50</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$50</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$50</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$50</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$50</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$50</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$50</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$50</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$50</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$50</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$50</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$50</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$50</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$50</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$50</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$50</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,30 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +757,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>39813</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-51.357999999999997</v>
+        <v>-25.498000000000001</v>
       </c>
       <c r="D2">
-        <v>36.286000000000001</v>
+        <v>14.162000000000001</v>
       </c>
       <c r="E2">
-        <v>6.71</v>
+        <v>3.32</v>
       </c>
       <c r="F2">
-        <v>11.321</v>
+        <v>-6.4020000000000001</v>
       </c>
       <c r="G2">
-        <v>235.886</v>
+        <v>31.427</v>
       </c>
       <c r="H2">
-        <v>386.08199999999999</v>
+        <v>51.698999999999998</v>
       </c>
       <c r="I2">
-        <v>28.951000000000001</v>
+        <v>14.183999999999999</v>
       </c>
       <c r="J2">
-        <v>71.828000000000003</v>
+        <v>54.527999999999999</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +796,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>85.564999999999998</v>
+        <v>87.935000000000002</v>
       </c>
       <c r="O2">
-        <v>179.03399999999999</v>
+        <v>148.161</v>
       </c>
       <c r="P2">
-        <v>72.602999999999994</v>
+        <v>55.756999999999998</v>
       </c>
       <c r="Q2">
-        <v>2.9950000000000001</v>
+        <v>-8.7460000000000004</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>39813</v>
       </c>
       <c r="S2">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>207.048</v>
+        <v>-96.462000000000003</v>
       </c>
       <c r="U2">
-        <v>99.558000000000007</v>
+        <v>9.2769999999999992</v>
       </c>
       <c r="V2">
-        <v>-34.283999999999999</v>
+        <v>-22.353999999999999</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>45.829000000000001</v>
+        <v>15.752000000000001</v>
       </c>
       <c r="Y2">
-        <v>0.496</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-51.357999999999997</v>
+        <v>-25.498000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>39903</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-48.941000000000003</v>
+        <v>-16.015999999999998</v>
       </c>
       <c r="D3">
-        <v>49.03</v>
+        <v>20.885999999999999</v>
       </c>
       <c r="E3">
-        <v>20.260000000000002</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>18.027999999999999</v>
+        <v>-2.0459999999999998</v>
       </c>
       <c r="G3">
-        <v>226.90600000000001</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>407.28899999999999</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>49.66</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>102.48399999999999</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +876,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-7.9000000000000001E-2</v>
+        <v>-0.121</v>
       </c>
       <c r="N3">
-        <v>112.976</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>239.55099999999999</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>103.18</v>
+        <v>55.756999999999998</v>
       </c>
       <c r="Q3">
-        <v>1.097</v>
+        <v>2.468</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>39903</v>
       </c>
       <c r="S3">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>167.738</v>
+        <v>-96.462000000000003</v>
       </c>
       <c r="U3">
-        <v>100.655</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-43.296999999999997</v>
+        <v>-16.163</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>34.283000000000001</v>
+        <v>19.533000000000001</v>
       </c>
       <c r="Y3">
-        <v>0.42099999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-48.941000000000003</v>
+        <v>-16.015999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>39994</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-58.902999999999999</v>
+        <v>-10.867000000000001</v>
       </c>
       <c r="D4">
-        <v>58.170999999999999</v>
+        <v>26.945</v>
       </c>
       <c r="E4">
-        <v>23.308</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>18.507999999999999</v>
+        <v>2.101</v>
       </c>
       <c r="G4">
-        <v>417.75799999999998</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>646.15499999999997</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>57.198999999999998</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>134.17699999999999</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +962,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>138.73599999999999</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>297.70299999999997</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>134.82300000000001</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>218.72499999999999</v>
+        <v>38.954999999999998</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>39994</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>348.452</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>319.38</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>-22.488</v>
+        <v>-12.166</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>264.33499999999998</v>
+        <v>55.228999999999999</v>
       </c>
       <c r="Y4">
-        <v>0.35899999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>-58.902999999999999</v>
+        <v>-10.867000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>40086</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-65.078000000000003</v>
+        <v>-4.6150000000000002</v>
       </c>
       <c r="D5">
-        <v>57.665999999999997</v>
+        <v>45.527000000000001</v>
       </c>
       <c r="E5">
-        <v>18.25</v>
+        <v>1.3859999999999999</v>
       </c>
       <c r="F5">
-        <v>17.224</v>
+        <v>7.6989999999999998</v>
       </c>
       <c r="G5">
-        <v>412.12099999999998</v>
+        <v>131.94999999999999</v>
       </c>
       <c r="H5">
-        <v>700.25</v>
+        <v>155.916</v>
       </c>
       <c r="I5">
-        <v>53.627000000000002</v>
+        <v>17.356999999999999</v>
       </c>
       <c r="J5">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1045,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>154.18100000000001</v>
+        <v>60.999000000000002</v>
       </c>
       <c r="O5">
-        <v>406.13200000000001</v>
+        <v>66.325999999999993</v>
       </c>
       <c r="P5">
-        <v>226.04900000000001</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="Q5">
-        <v>-106.05200000000001</v>
+        <v>55.847000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>40086</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="T5">
-        <v>294.11799999999999</v>
+        <v>89.59</v>
       </c>
       <c r="U5">
-        <v>213.328</v>
+        <v>106.547</v>
       </c>
       <c r="V5">
-        <v>-21.491</v>
+        <v>-23.489000000000001</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>93.608999999999995</v>
+        <v>82.370999999999995</v>
       </c>
       <c r="Y5">
-        <v>0.66100000000000003</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="Z5">
-        <v>-64.951999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-65.078000000000003</v>
+        <v>-4.6150000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>40178</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-81.489000000000004</v>
+        <v>-24.242000000000001</v>
       </c>
       <c r="D6">
-        <v>39.375</v>
+        <v>18.585000000000001</v>
       </c>
       <c r="E6">
-        <v>9.5389999999999997</v>
+        <v>3.488</v>
       </c>
       <c r="F6">
-        <v>7.835</v>
+        <v>1.7809999999999999</v>
       </c>
       <c r="G6">
-        <v>372.83800000000002</v>
+        <v>100.559</v>
       </c>
       <c r="H6">
-        <v>713.44799999999998</v>
+        <v>130.42400000000001</v>
       </c>
       <c r="I6">
-        <v>56.140999999999998</v>
+        <v>15.086</v>
       </c>
       <c r="J6">
-        <v>268.33499999999998</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1128,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>191.339</v>
+        <v>57.488999999999997</v>
       </c>
       <c r="O6">
-        <v>489.40300000000002</v>
+        <v>62.988</v>
       </c>
       <c r="P6">
-        <v>280.14800000000002</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="Q6">
-        <v>41.938000000000002</v>
+        <v>-36.92</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>40178</v>
       </c>
       <c r="S6">
-        <v>1417</v>
+        <v>514</v>
       </c>
       <c r="T6">
-        <v>224.04499999999999</v>
+        <v>67.436000000000007</v>
       </c>
       <c r="U6">
-        <v>255.26599999999999</v>
+        <v>69.626999999999995</v>
       </c>
       <c r="V6">
-        <v>-40.758000000000003</v>
+        <v>-29.007000000000001</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>53.773000000000003</v>
+        <v>-1.714</v>
       </c>
       <c r="Y6">
-        <v>2.83</v>
+        <v>0.8</v>
       </c>
       <c r="Z6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-81.489000000000004</v>
+        <v>-24.242000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>40268</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-89.873000000000005</v>
+        <v>-29.518999999999998</v>
       </c>
       <c r="D7">
-        <v>30.167000000000002</v>
+        <v>20.812000000000001</v>
       </c>
       <c r="E7">
-        <v>13.589</v>
+        <v>5.931</v>
       </c>
       <c r="F7">
-        <v>10.210000000000001</v>
+        <v>3.8519999999999999</v>
       </c>
       <c r="G7">
-        <v>358.89699999999999</v>
+        <v>100.602</v>
       </c>
       <c r="H7">
-        <v>761.1</v>
+        <v>145.32</v>
       </c>
       <c r="I7">
-        <v>64.332999999999998</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="J7">
-        <v>340.32299999999998</v>
+        <v>29.92</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1208,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-0.42899999999999999</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="N7">
-        <v>235.72200000000001</v>
+        <v>59.104999999999997</v>
       </c>
       <c r="O7">
-        <v>607.226</v>
+        <v>101.14100000000001</v>
       </c>
       <c r="P7">
-        <v>365.90800000000002</v>
+        <v>30.931999999999999</v>
       </c>
       <c r="Q7">
-        <v>-36.695999999999998</v>
+        <v>-8.0809999999999995</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>40268</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="T7">
-        <v>153.874</v>
+        <v>44.179000000000002</v>
       </c>
       <c r="U7">
-        <v>218.57</v>
+        <v>61.545999999999999</v>
       </c>
       <c r="V7">
-        <v>-63.3</v>
+        <v>-27.329000000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>92.831000000000003</v>
+        <v>28.626999999999999</v>
       </c>
       <c r="Y7">
-        <v>3.7210000000000001</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="Z7">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>-89.873000000000005</v>
+        <v>-29.518999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>40359</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-105.60299999999999</v>
+        <v>-38.517000000000003</v>
       </c>
       <c r="D8">
-        <v>26.652999999999999</v>
+        <v>28.405000000000001</v>
       </c>
       <c r="E8">
-        <v>11.023</v>
+        <v>6.4669999999999996</v>
       </c>
       <c r="F8">
-        <v>4.7619999999999996</v>
+        <v>6.2610000000000001</v>
       </c>
       <c r="G8">
-        <v>317.12599999999998</v>
+        <v>90.034000000000006</v>
       </c>
       <c r="H8">
-        <v>776.86900000000003</v>
+        <v>147.97399999999999</v>
       </c>
       <c r="I8">
-        <v>78.600999999999999</v>
+        <v>25.634</v>
       </c>
       <c r="J8">
-        <v>396.15499999999997</v>
+        <v>45.418999999999997</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1294,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>286.52600000000001</v>
+        <v>68.634</v>
       </c>
       <c r="O8">
-        <v>714.654</v>
+        <v>121.815</v>
       </c>
       <c r="P8">
-        <v>438.97300000000001</v>
+        <v>46.353999999999999</v>
       </c>
       <c r="Q8">
-        <v>-8.016</v>
+        <v>-14.242000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>40359</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="T8">
-        <v>62.215000000000003</v>
+        <v>26.158999999999999</v>
       </c>
       <c r="U8">
-        <v>210.554</v>
+        <v>47.304000000000002</v>
       </c>
       <c r="V8">
-        <v>-64.263999999999996</v>
+        <v>-20.247</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>72.180000000000007</v>
+        <v>13.694000000000001</v>
       </c>
       <c r="Y8">
-        <v>4.72</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="Z8">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>-105.60299999999999</v>
+        <v>-38.517000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>40451</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-110.806</v>
+        <v>-34.933999999999997</v>
       </c>
       <c r="D9">
-        <v>50.103999999999999</v>
+        <v>31.241</v>
       </c>
       <c r="E9">
-        <v>9.1639999999999997</v>
+        <v>8.0619999999999994</v>
       </c>
       <c r="F9">
-        <v>-8.7609999999999992</v>
+        <v>9.2959999999999994</v>
       </c>
       <c r="G9">
-        <v>284.541</v>
+        <v>241.13300000000001</v>
       </c>
       <c r="H9">
-        <v>809.17700000000002</v>
+        <v>361.62099999999998</v>
       </c>
       <c r="I9">
-        <v>162.02500000000001</v>
+        <v>26.99</v>
       </c>
       <c r="J9">
-        <v>414.20699999999999</v>
+        <v>56.557000000000002</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1377,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>385.80599999999998</v>
+        <v>69.328000000000003</v>
       </c>
       <c r="O9">
-        <v>837.05200000000002</v>
+        <v>141.69800000000001</v>
       </c>
       <c r="P9">
-        <v>474.51400000000001</v>
+        <v>57.414000000000001</v>
       </c>
       <c r="Q9">
-        <v>-124.861</v>
+        <v>49.259</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>40451</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="T9">
-        <v>-27.875</v>
+        <v>219.923</v>
       </c>
       <c r="U9">
-        <v>85.692999999999998</v>
+        <v>96.563000000000002</v>
       </c>
       <c r="V9">
-        <v>-101.026</v>
+        <v>-45.957000000000001</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>40.179000000000002</v>
+        <v>249.89500000000001</v>
       </c>
       <c r="Y9">
-        <v>6.2779999999999996</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>-110.804</v>
+        <v>-34.935000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>40543</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-89.930999999999997</v>
+        <v>-51.357999999999997</v>
       </c>
       <c r="D10">
-        <v>306.33199999999999</v>
+        <v>36.286000000000001</v>
       </c>
       <c r="E10">
-        <v>26.841999999999999</v>
+        <v>6.71</v>
       </c>
       <c r="F10">
-        <v>23.856999999999999</v>
+        <v>11.321</v>
       </c>
       <c r="G10">
-        <v>524.76800000000003</v>
+        <v>235.886</v>
       </c>
       <c r="H10">
-        <v>1114.19</v>
+        <v>386.08199999999999</v>
       </c>
       <c r="I10">
-        <v>303.38200000000001</v>
+        <v>28.951000000000001</v>
       </c>
       <c r="J10">
-        <v>401.495</v>
+        <v>71.828000000000003</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1460,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>539.10799999999995</v>
+        <v>85.564999999999998</v>
       </c>
       <c r="O10">
-        <v>989.49</v>
+        <v>179.03399999999999</v>
       </c>
       <c r="P10">
-        <v>466.666</v>
+        <v>72.602999999999994</v>
       </c>
       <c r="Q10">
-        <v>116.197</v>
+        <v>2.9950000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>40543</v>
       </c>
       <c r="S10">
-        <v>2964</v>
+        <v>899</v>
       </c>
       <c r="T10">
-        <v>124.7</v>
+        <v>207.048</v>
       </c>
       <c r="U10">
-        <v>201.89</v>
+        <v>99.558000000000007</v>
       </c>
       <c r="V10">
-        <v>-37.491</v>
+        <v>-34.283999999999999</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>214.44499999999999</v>
+        <v>45.829000000000001</v>
       </c>
       <c r="Y10">
-        <v>9.9649999999999999</v>
+        <v>0.496</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>-89.930999999999997</v>
+        <v>-51.357999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>40633</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>11.247999999999999</v>
+        <v>-48.941000000000003</v>
       </c>
       <c r="D11">
-        <v>561.79200000000003</v>
+        <v>49.03</v>
       </c>
       <c r="E11">
-        <v>46.139000000000003</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="F11">
-        <v>96.32</v>
+        <v>18.027999999999999</v>
       </c>
       <c r="G11">
-        <v>525.99300000000005</v>
+        <v>226.90600000000001</v>
       </c>
       <c r="H11">
-        <v>1143.778</v>
+        <v>407.28899999999999</v>
       </c>
       <c r="I11">
-        <v>304.20400000000001</v>
+        <v>49.66</v>
       </c>
       <c r="J11">
-        <v>388.78500000000003</v>
+        <v>102.48399999999999</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1540,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-14.218999999999999</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="N11">
-        <v>535.62300000000005</v>
+        <v>112.976</v>
       </c>
       <c r="O11">
-        <v>975.19500000000005</v>
+        <v>239.55099999999999</v>
       </c>
       <c r="P11">
-        <v>455.53800000000001</v>
+        <v>103.18</v>
       </c>
       <c r="Q11">
-        <v>12.526999999999999</v>
+        <v>1.097</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>40633</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="T11">
-        <v>168.583</v>
+        <v>167.738</v>
       </c>
       <c r="U11">
-        <v>214.417</v>
+        <v>100.655</v>
       </c>
       <c r="V11">
-        <v>64.078999999999994</v>
+        <v>-43.296999999999997</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>3.6840000000000002</v>
+        <v>34.283000000000001</v>
       </c>
       <c r="Y11">
-        <v>10.46</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>11.247999999999999</v>
+        <v>-48.941000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>40724</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-30.501999999999999</v>
+        <v>-58.902999999999999</v>
       </c>
       <c r="D12">
-        <v>405.13900000000001</v>
+        <v>58.170999999999999</v>
       </c>
       <c r="E12">
-        <v>113.544</v>
+        <v>23.308</v>
       </c>
       <c r="F12">
-        <v>100.483</v>
+        <v>18.507999999999999</v>
       </c>
       <c r="G12">
-        <v>1129.5419999999999</v>
+        <v>417.75799999999998</v>
       </c>
       <c r="H12">
-        <v>1887.8440000000001</v>
+        <v>646.15499999999997</v>
       </c>
       <c r="I12">
-        <v>262.22699999999998</v>
+        <v>57.198999999999998</v>
       </c>
       <c r="J12">
-        <v>578.74</v>
+        <v>134.17699999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1626,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>486.54500000000002</v>
+        <v>138.73599999999999</v>
       </c>
       <c r="O12">
-        <v>1258.4179999999999</v>
+        <v>297.70299999999997</v>
       </c>
       <c r="P12">
-        <v>593.68399999999997</v>
+        <v>134.82300000000001</v>
       </c>
       <c r="Q12">
-        <v>531.64</v>
+        <v>218.72499999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>40724</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>629.42600000000004</v>
+        <v>348.452</v>
       </c>
       <c r="U12">
-        <v>746.05700000000002</v>
+        <v>319.38</v>
       </c>
       <c r="V12">
-        <v>-35.298000000000002</v>
+        <v>-22.488</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>597.00699999999995</v>
+        <v>264.33499999999998</v>
       </c>
       <c r="Y12">
-        <v>9.2490000000000006</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>-30.501999999999999</v>
+        <v>-58.902999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>40816</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-38.496000000000002</v>
+        <v>-65.078000000000003</v>
       </c>
       <c r="D13">
-        <v>431.346</v>
+        <v>57.665999999999997</v>
       </c>
       <c r="E13">
-        <v>47.58</v>
+        <v>18.25</v>
       </c>
       <c r="F13">
-        <v>102.86799999999999</v>
+        <v>17.224</v>
       </c>
       <c r="G13">
-        <v>1218.7660000000001</v>
+        <v>412.12099999999998</v>
       </c>
       <c r="H13">
-        <v>2166.2089999999998</v>
+        <v>700.25</v>
       </c>
       <c r="I13">
-        <v>302.43900000000002</v>
+        <v>53.627000000000002</v>
       </c>
       <c r="J13">
-        <v>77.498000000000005</v>
+        <v>225</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1709,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1169.4590000000001</v>
+        <v>154.18100000000001</v>
       </c>
       <c r="O13">
-        <v>1602.0440000000001</v>
+        <v>406.13200000000001</v>
       </c>
       <c r="P13">
-        <v>676.90200000000004</v>
+        <v>226.04900000000001</v>
       </c>
       <c r="Q13">
-        <v>49.058999999999997</v>
+        <v>-106.05200000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>40816</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>564.16499999999996</v>
+        <v>294.11799999999999</v>
       </c>
       <c r="U13">
-        <v>795.11599999999999</v>
+        <v>213.328</v>
       </c>
       <c r="V13">
-        <v>102.036</v>
+        <v>-21.491</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>24.215</v>
+        <v>93.608999999999995</v>
       </c>
       <c r="Y13">
-        <v>10.930999999999999</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-64.951999999999998</v>
       </c>
       <c r="AA13">
-        <v>-38.496000000000002</v>
+        <v>-65.078000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>40908</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-16.263999999999999</v>
+        <v>-81.489000000000004</v>
       </c>
       <c r="D14">
-        <v>615.21900000000005</v>
+        <v>39.375</v>
       </c>
       <c r="E14">
-        <v>49.109000000000002</v>
+        <v>9.5389999999999997</v>
       </c>
       <c r="F14">
-        <v>156.589</v>
+        <v>7.835</v>
       </c>
       <c r="G14">
-        <v>1265.9390000000001</v>
+        <v>372.83800000000002</v>
       </c>
       <c r="H14">
-        <v>2416.9299999999998</v>
+        <v>713.44799999999998</v>
       </c>
       <c r="I14">
-        <v>303.96899999999999</v>
+        <v>56.140999999999998</v>
       </c>
       <c r="J14">
-        <v>586.11900000000003</v>
+        <v>268.33499999999998</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1792,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>675.16</v>
+        <v>191.339</v>
       </c>
       <c r="O14">
-        <v>1749.81</v>
+        <v>489.40300000000002</v>
       </c>
       <c r="P14">
-        <v>606.87800000000004</v>
+        <v>280.14800000000002</v>
       </c>
       <c r="Q14">
-        <v>50.773000000000003</v>
+        <v>41.938000000000002</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>40908</v>
       </c>
       <c r="S14">
-        <v>5859</v>
+        <v>1417</v>
       </c>
       <c r="T14">
-        <v>667.12</v>
+        <v>224.04499999999999</v>
       </c>
       <c r="U14">
-        <v>845.88900000000001</v>
+        <v>255.26599999999999</v>
       </c>
       <c r="V14">
-        <v>133.98699999999999</v>
+        <v>-40.758000000000003</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>10.516</v>
+        <v>53.773000000000003</v>
       </c>
       <c r="Y14">
-        <v>12.855</v>
+        <v>2.83</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA14">
-        <v>-16.263999999999999</v>
+        <v>-81.489000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>40999</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-49.8</v>
+        <v>-89.873000000000005</v>
       </c>
       <c r="D15">
-        <v>620.54200000000003</v>
+        <v>30.167000000000002</v>
       </c>
       <c r="E15">
-        <v>72.38</v>
+        <v>13.589</v>
       </c>
       <c r="F15">
-        <v>155.12799999999999</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="G15">
-        <v>3156.047</v>
+        <v>358.89699999999999</v>
       </c>
       <c r="H15">
-        <v>4500.41</v>
+        <v>761.1</v>
       </c>
       <c r="I15">
-        <v>375.77800000000002</v>
+        <v>64.332999999999998</v>
       </c>
       <c r="J15">
-        <v>1519.9670000000001</v>
+        <v>340.32299999999998</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1872,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-2.5449999999999999</v>
+        <v>-0.42899999999999999</v>
       </c>
       <c r="N15">
-        <v>1483.412</v>
+        <v>235.72200000000001</v>
       </c>
       <c r="O15">
-        <v>3588.3539999999998</v>
+        <v>607.226</v>
       </c>
       <c r="P15">
-        <v>2200.7530000000002</v>
+        <v>365.90800000000002</v>
       </c>
       <c r="Q15">
-        <v>1548.019</v>
+        <v>-36.695999999999998</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>40999</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>912.05600000000004</v>
+        <v>153.874</v>
       </c>
       <c r="U15">
-        <v>2393.9079999999999</v>
+        <v>218.57</v>
       </c>
       <c r="V15">
-        <v>58.722999999999999</v>
+        <v>-63.3</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1816.559</v>
+        <v>92.831000000000003</v>
       </c>
       <c r="Y15">
-        <v>12.571999999999999</v>
+        <v>3.7210000000000001</v>
       </c>
       <c r="Z15">
-        <v>-189.11099999999999</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AA15">
-        <v>-49.8</v>
+        <v>-89.873000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>41090</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>-61.902000000000001</v>
+        <v>-105.60299999999999</v>
       </c>
       <c r="D16">
-        <v>769.34900000000005</v>
+        <v>26.652999999999999</v>
       </c>
       <c r="E16">
-        <v>96.606999999999999</v>
+        <v>11.023</v>
       </c>
       <c r="F16">
-        <v>212.995</v>
+        <v>4.7619999999999996</v>
       </c>
       <c r="G16">
-        <v>3441.694</v>
+        <v>317.12599999999998</v>
       </c>
       <c r="H16">
-        <v>5054.4629999999997</v>
+        <v>776.86900000000003</v>
       </c>
       <c r="I16">
-        <v>443.548</v>
+        <v>78.600999999999999</v>
       </c>
       <c r="J16">
-        <v>1767.0239999999999</v>
+        <v>396.15499999999997</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +1958,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1641.933</v>
+        <v>286.52600000000001</v>
       </c>
       <c r="O16">
-        <v>4102.13</v>
+        <v>714.654</v>
       </c>
       <c r="P16">
-        <v>2469.8310000000001</v>
+        <v>438.97300000000001</v>
       </c>
       <c r="Q16">
-        <v>281.00200000000001</v>
+        <v>-8.016</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>41090</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>952.33299999999997</v>
+        <v>62.215000000000003</v>
       </c>
       <c r="U16">
-        <v>2674.91</v>
+        <v>210.554</v>
       </c>
       <c r="V16">
-        <v>-1.6619999999999999</v>
+        <v>-64.263999999999996</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>281.49200000000002</v>
+        <v>72.180000000000007</v>
       </c>
       <c r="Y16">
-        <v>33.311999999999998</v>
+        <v>4.72</v>
       </c>
       <c r="Z16">
-        <v>177.97399999999999</v>
+        <v>25</v>
       </c>
       <c r="AA16">
-        <v>-61.9</v>
+        <v>-105.60299999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>41182</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-74.709000000000003</v>
+        <v>-110.806</v>
       </c>
       <c r="D17">
-        <v>851.80399999999997</v>
+        <v>50.103999999999999</v>
       </c>
       <c r="E17">
-        <v>156.88900000000001</v>
+        <v>9.1639999999999997</v>
       </c>
       <c r="F17">
-        <v>251.851</v>
+        <v>-8.7609999999999992</v>
       </c>
       <c r="G17">
-        <v>3362.9140000000002</v>
+        <v>284.541</v>
       </c>
       <c r="H17">
-        <v>5437.5330000000004</v>
+        <v>809.17700000000002</v>
       </c>
       <c r="I17">
-        <v>649.36199999999997</v>
+        <v>162.02500000000001</v>
       </c>
       <c r="J17">
-        <v>1786.635</v>
+        <v>414.20699999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2041,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1901.9380000000001</v>
+        <v>385.80599999999998</v>
       </c>
       <c r="O17">
-        <v>4479.4390000000003</v>
+        <v>837.05200000000002</v>
       </c>
       <c r="P17">
-        <v>2468.8200000000002</v>
+        <v>474.51400000000001</v>
       </c>
       <c r="Q17">
-        <v>-304.17500000000001</v>
+        <v>-124.861</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>41182</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>958.09400000000005</v>
+        <v>-27.875</v>
       </c>
       <c r="U17">
-        <v>2370.7350000000001</v>
+        <v>85.692999999999998</v>
       </c>
       <c r="V17">
-        <v>-27.995999999999999</v>
+        <v>-101.026</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>33.753999999999998</v>
+        <v>40.179000000000002</v>
       </c>
       <c r="Y17">
-        <v>12.805999999999999</v>
+        <v>6.2779999999999996</v>
       </c>
       <c r="Z17">
-        <v>-5.5629999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>-74.707999999999998</v>
+        <v>-110.804</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>41274</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-107.629</v>
+        <v>-89.930999999999997</v>
       </c>
       <c r="D18">
-        <v>956.66099999999994</v>
+        <v>306.33199999999999</v>
       </c>
       <c r="E18">
-        <v>226.60400000000001</v>
+        <v>26.841999999999999</v>
       </c>
       <c r="F18">
-        <v>261.697</v>
+        <v>23.856999999999999</v>
       </c>
       <c r="G18">
-        <v>3180.0729999999999</v>
+        <v>524.76800000000003</v>
       </c>
       <c r="H18">
-        <v>5830.6670000000004</v>
+        <v>1114.19</v>
       </c>
       <c r="I18">
-        <v>777.94600000000003</v>
+        <v>303.38200000000001</v>
       </c>
       <c r="J18">
-        <v>1818.7850000000001</v>
+        <v>401.495</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2124,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2165.3620000000001</v>
+        <v>539.10799999999995</v>
       </c>
       <c r="O18">
-        <v>4918.9570000000003</v>
+        <v>989.49</v>
       </c>
       <c r="P18">
-        <v>2540.48</v>
+        <v>466.666</v>
       </c>
       <c r="Q18">
-        <v>-465.02199999999999</v>
+        <v>116.197</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>41274</v>
       </c>
       <c r="S18">
-        <v>10161</v>
+        <v>2964</v>
       </c>
       <c r="T18">
-        <v>911.71</v>
+        <v>124.7</v>
       </c>
       <c r="U18">
-        <v>1905.713</v>
+        <v>201.89</v>
       </c>
       <c r="V18">
-        <v>-86.402000000000001</v>
+        <v>-37.491</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>11.324999999999999</v>
+        <v>214.44499999999999</v>
       </c>
       <c r="Y18">
-        <v>31.4</v>
+        <v>9.9649999999999999</v>
       </c>
       <c r="Z18">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>-107.629</v>
+        <v>-89.930999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>41364</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-154.18100000000001</v>
+        <v>11.247999999999999</v>
       </c>
       <c r="D19">
-        <v>939.88</v>
+        <v>561.79200000000003</v>
       </c>
       <c r="E19">
-        <v>200.05199999999999</v>
+        <v>46.139000000000003</v>
       </c>
       <c r="F19">
-        <v>260.07299999999998</v>
+        <v>96.32</v>
       </c>
       <c r="G19">
-        <v>2921.4169999999999</v>
+        <v>525.99300000000005</v>
       </c>
       <c r="H19">
-        <v>6120.03</v>
+        <v>1143.778</v>
       </c>
       <c r="I19">
-        <v>732.33100000000002</v>
+        <v>304.20400000000001</v>
       </c>
       <c r="J19">
-        <v>1888.672</v>
+        <v>388.78500000000003</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2204,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-3.726</v>
+        <v>-14.218999999999999</v>
       </c>
       <c r="N19">
-        <v>2246.6579999999999</v>
+        <v>535.62300000000005</v>
       </c>
       <c r="O19">
-        <v>5294.0330000000004</v>
+        <v>975.19500000000005</v>
       </c>
       <c r="P19">
-        <v>2645.846</v>
+        <v>455.53800000000001</v>
       </c>
       <c r="Q19">
-        <v>-395.637</v>
+        <v>12.526999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>41364</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>825.99699999999996</v>
+        <v>168.583</v>
       </c>
       <c r="U19">
-        <v>1510.076</v>
+        <v>214.417</v>
       </c>
       <c r="V19">
-        <v>-131.79400000000001</v>
+        <v>64.078999999999994</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>186.15600000000001</v>
+        <v>3.6840000000000002</v>
       </c>
       <c r="Y19">
-        <v>72.564999999999998</v>
+        <v>10.46</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>-154.18100000000001</v>
+        <v>11.247999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>41455</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>-184.227</v>
+        <v>-30.501999999999999</v>
       </c>
       <c r="D20">
-        <v>954.976</v>
+        <v>405.13900000000001</v>
       </c>
       <c r="E20">
-        <v>138.648</v>
+        <v>113.544</v>
       </c>
       <c r="F20">
-        <v>213.37</v>
+        <v>100.483</v>
       </c>
       <c r="G20">
-        <v>2628.6210000000001</v>
+        <v>1129.5419999999999</v>
       </c>
       <c r="H20">
-        <v>6468.1850000000004</v>
+        <v>1887.8440000000001</v>
       </c>
       <c r="I20">
-        <v>771.63699999999994</v>
+        <v>262.22699999999998</v>
       </c>
       <c r="J20">
-        <v>1988.0889999999999</v>
+        <v>578.74</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2290,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2434.6610000000001</v>
+        <v>486.54500000000002</v>
       </c>
       <c r="O20">
-        <v>5752.2510000000002</v>
+        <v>1258.4179999999999</v>
       </c>
       <c r="P20">
-        <v>2790.491</v>
+        <v>593.68399999999997</v>
       </c>
       <c r="Q20">
-        <v>-359.40300000000002</v>
+        <v>531.64</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>41455</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>715.93399999999997</v>
+        <v>629.42600000000004</v>
       </c>
       <c r="U20">
-        <v>1150.673</v>
+        <v>746.05700000000002</v>
       </c>
       <c r="V20">
-        <v>-159.51599999999999</v>
+        <v>-35.298000000000002</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>218.351</v>
+        <v>597.00699999999995</v>
       </c>
       <c r="Y20">
-        <v>113.254</v>
+        <v>9.2490000000000006</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>-184.227</v>
+        <v>-30.501999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>41547</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-229.858</v>
+        <v>-38.496000000000002</v>
       </c>
       <c r="D21">
-        <v>936.78899999999999</v>
+        <v>431.346</v>
       </c>
       <c r="E21">
-        <v>119.964</v>
+        <v>47.58</v>
       </c>
       <c r="F21">
-        <v>231.49600000000001</v>
+        <v>102.86799999999999</v>
       </c>
       <c r="G21">
-        <v>2998.7950000000001</v>
+        <v>1218.7660000000001</v>
       </c>
       <c r="H21">
-        <v>7547.4970000000003</v>
+        <v>2166.2089999999998</v>
       </c>
       <c r="I21">
-        <v>824.86099999999999</v>
+        <v>302.43900000000002</v>
       </c>
       <c r="J21">
-        <v>1966.3610000000001</v>
+        <v>77.498000000000005</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2373,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2599.9520000000002</v>
+        <v>1169.4590000000001</v>
       </c>
       <c r="O21">
-        <v>6232.8410000000003</v>
+        <v>1602.0440000000001</v>
       </c>
       <c r="P21">
-        <v>2846.7840000000001</v>
+        <v>676.90200000000004</v>
       </c>
       <c r="Q21">
-        <v>275.363</v>
+        <v>49.058999999999997</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>41547</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1314.6559999999999</v>
+        <v>564.16499999999996</v>
       </c>
       <c r="U21">
-        <v>1426.0360000000001</v>
+        <v>795.11599999999999</v>
       </c>
       <c r="V21">
-        <v>-203.34</v>
+        <v>102.036</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>893.97799999999995</v>
+        <v>24.215</v>
       </c>
       <c r="Y21">
-        <v>181.43299999999999</v>
+        <v>10.930999999999999</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>-229.858</v>
+        <v>-38.496000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>41639</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-320.39699999999999</v>
+        <v>-16.263999999999999</v>
       </c>
       <c r="D22">
-        <v>1214.3800000000001</v>
+        <v>615.21900000000005</v>
       </c>
       <c r="E22">
-        <v>168.965</v>
+        <v>49.109000000000002</v>
       </c>
       <c r="F22">
-        <v>218.56399999999999</v>
+        <v>156.589</v>
       </c>
       <c r="G22">
-        <v>2782.0059999999999</v>
+        <v>1265.9390000000001</v>
       </c>
       <c r="H22">
-        <v>8067.9390000000003</v>
+        <v>2416.9299999999998</v>
       </c>
       <c r="I22">
-        <v>916.14800000000002</v>
+        <v>303.96899999999999</v>
       </c>
       <c r="J22">
-        <v>2021.0930000000001</v>
+        <v>586.11900000000003</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2456,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2858.32</v>
+        <v>675.16</v>
       </c>
       <c r="O22">
-        <v>6984.2349999999997</v>
+        <v>1749.81</v>
       </c>
       <c r="P22">
-        <v>2898.9940000000001</v>
+        <v>606.87800000000004</v>
       </c>
       <c r="Q22">
-        <v>-229.12799999999999</v>
+        <v>50.773000000000003</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>41639</v>
       </c>
       <c r="S22">
-        <v>13058</v>
+        <v>5859</v>
       </c>
       <c r="T22">
-        <v>1083.704</v>
+        <v>667.12</v>
       </c>
       <c r="U22">
-        <v>1196.9079999999999</v>
+        <v>845.88900000000001</v>
       </c>
       <c r="V22">
-        <v>-29.849</v>
+        <v>133.98699999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>225.03800000000001</v>
+        <v>10.516</v>
       </c>
       <c r="Y22">
-        <v>201.38900000000001</v>
+        <v>12.855</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>-320.39699999999999</v>
+        <v>-16.263999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>41729</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-282.267</v>
+        <v>-49.8</v>
       </c>
       <c r="D23">
-        <v>1147.048</v>
+        <v>620.54200000000003</v>
       </c>
       <c r="E23">
-        <v>318.05599999999998</v>
+        <v>72.38</v>
       </c>
       <c r="F23">
-        <v>252.46799999999999</v>
+        <v>155.12799999999999</v>
       </c>
       <c r="G23">
-        <v>3239.5430000000001</v>
+        <v>3156.047</v>
       </c>
       <c r="H23">
-        <v>9191.7019999999993</v>
+        <v>4500.41</v>
       </c>
       <c r="I23">
-        <v>1013.486</v>
+        <v>375.77800000000002</v>
       </c>
       <c r="J23">
-        <v>2484.3290000000002</v>
+        <v>1519.9670000000001</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2536,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-8.1280000000000001</v>
+        <v>-2.5449999999999999</v>
       </c>
       <c r="N23">
-        <v>3230.3249999999998</v>
+        <v>1483.412</v>
       </c>
       <c r="O23">
-        <v>8221.3369999999995</v>
+        <v>3588.3539999999998</v>
       </c>
       <c r="P23">
-        <v>3409.04</v>
+        <v>2200.7530000000002</v>
       </c>
       <c r="Q23">
-        <v>244.881</v>
+        <v>1548.019</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>41729</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>970.36500000000001</v>
+        <v>912.05600000000004</v>
       </c>
       <c r="U23">
-        <v>1441.789</v>
+        <v>2393.9079999999999</v>
       </c>
       <c r="V23">
-        <v>-249.60499999999999</v>
+        <v>58.722999999999999</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>715.43499999999995</v>
+        <v>1816.559</v>
       </c>
       <c r="Y23">
-        <v>244.8</v>
+        <v>12.571999999999999</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-189.11099999999999</v>
       </c>
       <c r="AA23">
-        <v>-282.267</v>
+        <v>-49.8</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>41820</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-293.18799999999999</v>
+        <v>-61.902000000000001</v>
       </c>
       <c r="D24">
-        <v>1270.0170000000001</v>
+        <v>769.34900000000005</v>
       </c>
       <c r="E24">
-        <v>178.59399999999999</v>
+        <v>96.606999999999999</v>
       </c>
       <c r="F24">
-        <v>274.77600000000001</v>
+        <v>212.995</v>
       </c>
       <c r="G24">
-        <v>5203.7049999999999</v>
+        <v>3441.694</v>
       </c>
       <c r="H24">
-        <v>11868.951999999999</v>
+        <v>5054.4629999999997</v>
       </c>
       <c r="I24">
-        <v>1114.8779999999999</v>
+        <v>443.548</v>
       </c>
       <c r="J24">
-        <v>2620.002</v>
+        <v>1767.0239999999999</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2622,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3803.55</v>
+        <v>1641.933</v>
       </c>
       <c r="O24">
-        <v>9348.6579999999994</v>
+        <v>4102.13</v>
       </c>
       <c r="P24">
-        <v>3667.0740000000001</v>
+        <v>2469.8310000000001</v>
       </c>
       <c r="Q24">
-        <v>1804.5119999999999</v>
+        <v>281.00200000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>41820</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2520.2939999999999</v>
+        <v>952.33299999999997</v>
       </c>
       <c r="U24">
-        <v>3246.3009999999999</v>
+        <v>2674.91</v>
       </c>
       <c r="V24">
-        <v>150.33600000000001</v>
+        <v>-1.6619999999999999</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>1976.5840000000001</v>
+        <v>281.49200000000002</v>
       </c>
       <c r="Y24">
-        <v>380.7</v>
+        <v>33.311999999999998</v>
       </c>
       <c r="Z24">
-        <v>16.667000000000002</v>
+        <v>177.97399999999999</v>
       </c>
       <c r="AA24">
-        <v>-293.18799999999999</v>
+        <v>-61.9</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>41912</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>21.878</v>
+        <v>-74.709000000000003</v>
       </c>
       <c r="D25">
-        <v>2298.4360000000001</v>
+        <v>851.80399999999997</v>
       </c>
       <c r="E25">
-        <v>326.89499999999998</v>
+        <v>156.88900000000001</v>
       </c>
       <c r="F25">
-        <v>636.73500000000001</v>
+        <v>251.851</v>
       </c>
       <c r="G25">
-        <v>5172.4120000000003</v>
+        <v>3362.9140000000002</v>
       </c>
       <c r="H25">
-        <v>12592.397000000001</v>
+        <v>5437.5330000000004</v>
       </c>
       <c r="I25">
-        <v>1606.2840000000001</v>
+        <v>649.36199999999997</v>
       </c>
       <c r="J25">
-        <v>2443.42</v>
+        <v>1786.635</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2705,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4093.66</v>
+        <v>1901.9380000000001</v>
       </c>
       <c r="O25">
-        <v>9911.9089999999997</v>
+        <v>4479.4390000000003</v>
       </c>
       <c r="P25">
-        <v>3172.261</v>
+        <v>2468.8200000000002</v>
       </c>
       <c r="Q25">
-        <v>-162.04400000000001</v>
+        <v>-304.17500000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>41912</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2680.4879999999998</v>
+        <v>958.09400000000005</v>
       </c>
       <c r="U25">
-        <v>3084.2570000000001</v>
+        <v>2370.7350000000001</v>
       </c>
       <c r="V25">
-        <v>423.649</v>
+        <v>-27.995999999999999</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-320.87</v>
+        <v>33.753999999999998</v>
       </c>
       <c r="Y25">
-        <v>454.2</v>
+        <v>12.805999999999999</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-5.5629999999999997</v>
       </c>
       <c r="AA25">
-        <v>21.878</v>
+        <v>-74.707999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>42004</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-121.337</v>
+        <v>-107.629</v>
       </c>
       <c r="D26">
-        <v>2284.6309999999999</v>
+        <v>956.66099999999994</v>
       </c>
       <c r="E26">
-        <v>499.142</v>
+        <v>226.60400000000001</v>
       </c>
       <c r="F26">
-        <v>435.27800000000002</v>
+        <v>261.697</v>
       </c>
       <c r="G26">
-        <v>6259.7960000000003</v>
+        <v>3180.0729999999999</v>
       </c>
       <c r="H26">
-        <v>22664.076000000001</v>
+        <v>5830.6670000000004</v>
       </c>
       <c r="I26">
-        <v>1860.3409999999999</v>
+        <v>777.94600000000003</v>
       </c>
       <c r="J26">
-        <v>6053.86</v>
+        <v>1818.7850000000001</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2788,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>5835.7889999999998</v>
+        <v>2165.3620000000001</v>
       </c>
       <c r="O26">
-        <v>16758.951000000001</v>
+        <v>4918.9570000000003</v>
       </c>
       <c r="P26">
-        <v>8588.1149999999998</v>
+        <v>2540.48</v>
       </c>
       <c r="Q26">
-        <v>308.959</v>
+        <v>-465.02199999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>42004</v>
       </c>
       <c r="S26">
-        <v>30025</v>
+        <v>10161</v>
       </c>
       <c r="T26">
-        <v>5905.125</v>
+        <v>911.71</v>
       </c>
       <c r="U26">
-        <v>3393.2159999999999</v>
+        <v>1905.713</v>
       </c>
       <c r="V26">
-        <v>-448.209</v>
+        <v>-86.402000000000001</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>1372.827</v>
+        <v>11.324999999999999</v>
       </c>
       <c r="Y26">
-        <v>1323.2929999999999</v>
+        <v>31.4</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="AA26">
-        <v>-121.337</v>
+        <v>-107.629</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>42094</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-330.27699999999999</v>
+        <v>-154.18100000000001</v>
       </c>
       <c r="D27">
-        <v>2696.27</v>
+        <v>939.88</v>
       </c>
       <c r="E27">
-        <v>440.34899999999999</v>
+        <v>200.05199999999999</v>
       </c>
       <c r="F27">
-        <v>667.94600000000003</v>
+        <v>260.07299999999998</v>
       </c>
       <c r="G27">
-        <v>7027.8890000000001</v>
+        <v>2921.4169999999999</v>
       </c>
       <c r="H27">
-        <v>25053.725999999999</v>
+        <v>6120.03</v>
       </c>
       <c r="I27">
-        <v>2075.3330000000001</v>
+        <v>732.33100000000002</v>
       </c>
       <c r="J27">
-        <v>7247.3819999999996</v>
+        <v>1888.672</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2868,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-799.24800000000005</v>
+        <v>-3.726</v>
       </c>
       <c r="N27">
-        <v>6252.7219999999998</v>
+        <v>2246.6579999999999</v>
       </c>
       <c r="O27">
-        <v>18892.635999999999</v>
+        <v>5294.0330000000004</v>
       </c>
       <c r="P27">
-        <v>9667.7260000000006</v>
+        <v>2645.846</v>
       </c>
       <c r="Q27">
-        <v>658.86199999999997</v>
+        <v>-395.637</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>42094</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>6161.09</v>
+        <v>825.99699999999996</v>
       </c>
       <c r="U27">
-        <v>4006.5929999999998</v>
+        <v>1510.076</v>
       </c>
       <c r="V27">
-        <v>-69.811000000000007</v>
+        <v>-131.79400000000001</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>1598.749</v>
+        <v>186.15600000000001</v>
       </c>
       <c r="Y27">
-        <v>1398.65</v>
+        <v>72.564999999999998</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>-330.27699999999999</v>
+        <v>-154.18100000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>42185</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>-336.39699999999999</v>
+        <v>-184.227</v>
       </c>
       <c r="D28">
-        <v>2789.5569999999998</v>
+        <v>954.976</v>
       </c>
       <c r="E28">
-        <v>453.53899999999999</v>
+        <v>138.648</v>
       </c>
       <c r="F28">
-        <v>666.61500000000001</v>
+        <v>213.37</v>
       </c>
       <c r="G28">
-        <v>6359.4440000000004</v>
+        <v>2628.6210000000001</v>
       </c>
       <c r="H28">
-        <v>26043.705000000002</v>
+        <v>6468.1850000000004</v>
       </c>
       <c r="I28">
-        <v>2359.3159999999998</v>
+        <v>771.63699999999994</v>
       </c>
       <c r="J28">
-        <v>7215.4930000000004</v>
+        <v>1988.0889999999999</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +2954,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>6548.0429999999997</v>
+        <v>2434.6610000000001</v>
       </c>
       <c r="O28">
-        <v>19461.59</v>
+        <v>5752.2510000000002</v>
       </c>
       <c r="P28">
-        <v>9557.4060000000009</v>
+        <v>2790.491</v>
       </c>
       <c r="Q28">
-        <v>-913.024</v>
+        <v>-359.40300000000002</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>42185</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>6582.1149999999998</v>
+        <v>715.93399999999997</v>
       </c>
       <c r="U28">
-        <v>3035.924</v>
+        <v>1150.673</v>
       </c>
       <c r="V28">
-        <v>-200.172</v>
+        <v>-159.51599999999999</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>428.767</v>
+        <v>218.351</v>
       </c>
       <c r="Y28">
-        <v>1511.692</v>
+        <v>113.254</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>-336.39699999999999</v>
+        <v>-184.227</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>42277</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-619.37599999999998</v>
+        <v>-229.858</v>
       </c>
       <c r="D29">
-        <v>2984.6750000000002</v>
+        <v>936.78899999999999</v>
       </c>
       <c r="E29">
-        <v>607.73400000000004</v>
+        <v>119.964</v>
       </c>
       <c r="F29">
-        <v>449.14</v>
+        <v>231.49600000000001</v>
       </c>
       <c r="G29">
-        <v>7068.7330000000002</v>
+        <v>2998.7950000000001</v>
       </c>
       <c r="H29">
-        <v>28107.074000000001</v>
+        <v>7547.4970000000003</v>
       </c>
       <c r="I29">
-        <v>2385.7779999999998</v>
+        <v>824.86099999999999</v>
       </c>
       <c r="J29">
-        <v>9656.4750000000004</v>
+        <v>1966.3610000000001</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3037,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>6469.2969999999996</v>
+        <v>2599.9520000000002</v>
       </c>
       <c r="O29">
-        <v>21929.414000000001</v>
+        <v>6232.8410000000003</v>
       </c>
       <c r="P29">
-        <v>11720.148999999999</v>
+        <v>2846.7840000000001</v>
       </c>
       <c r="Q29">
-        <v>564.01700000000005</v>
+        <v>275.363</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>42277</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>6177.66</v>
+        <v>1314.6559999999999</v>
       </c>
       <c r="U29">
-        <v>3530.03</v>
+        <v>1426.0360000000001</v>
       </c>
       <c r="V29">
-        <v>-300.56200000000001</v>
+        <v>-203.34</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>2101.5059999999999</v>
+        <v>893.97799999999995</v>
       </c>
       <c r="Y29">
-        <v>1621.5930000000001</v>
+        <v>181.43299999999999</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>-619.37599999999998</v>
+        <v>-229.858</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>42369</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-675.35</v>
+        <v>-320.39699999999999</v>
       </c>
       <c r="D30">
-        <v>3288.2489999999998</v>
+        <v>1214.3800000000001</v>
       </c>
       <c r="E30">
-        <v>515.38099999999997</v>
+        <v>168.965</v>
       </c>
       <c r="F30">
-        <v>438.786</v>
+        <v>218.56399999999999</v>
       </c>
       <c r="G30">
-        <v>6570.52</v>
+        <v>2782.0059999999999</v>
       </c>
       <c r="H30">
-        <v>28655.371999999999</v>
+        <v>8067.9390000000003</v>
       </c>
       <c r="I30">
-        <v>2390.25</v>
+        <v>916.14800000000002</v>
       </c>
       <c r="J30">
-        <v>9486.2479999999996</v>
+        <v>2021.0930000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3120,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>7674.74</v>
+        <v>2858.32</v>
       </c>
       <c r="O30">
-        <v>23023.05</v>
+        <v>6984.2349999999997</v>
       </c>
       <c r="P30">
-        <v>12130.862999999999</v>
+        <v>2898.9940000000001</v>
       </c>
       <c r="Q30">
-        <v>-111.79600000000001</v>
+        <v>-229.12799999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>42369</v>
       </c>
       <c r="S30">
-        <v>37543</v>
+        <v>13058</v>
       </c>
       <c r="T30">
-        <v>5632.3220000000001</v>
+        <v>1083.704</v>
       </c>
       <c r="U30">
-        <v>3367.9140000000002</v>
+        <v>1196.9079999999999</v>
       </c>
       <c r="V30">
-        <v>509.89100000000002</v>
+        <v>-29.849</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>285.84199999999998</v>
+        <v>225.03800000000001</v>
       </c>
       <c r="Y30">
-        <v>1665.768</v>
+        <v>201.38900000000001</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>-675.35</v>
+        <v>-320.39699999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>42460</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-709.55100000000004</v>
+        <v>-282.267</v>
       </c>
       <c r="D31">
-        <v>3408.7510000000002</v>
+        <v>1147.048</v>
       </c>
       <c r="E31">
-        <v>652.84799999999996</v>
+        <v>318.05599999999998</v>
       </c>
       <c r="F31">
-        <v>456.52600000000001</v>
+        <v>252.46799999999999</v>
       </c>
       <c r="G31">
-        <v>6383.92</v>
+        <v>3239.5430000000001</v>
       </c>
       <c r="H31">
-        <v>27271.429</v>
+        <v>9191.7019999999993</v>
       </c>
       <c r="I31">
-        <v>2603.498</v>
+        <v>1013.486</v>
       </c>
       <c r="J31">
-        <v>8821.0380000000005</v>
+        <v>2484.3290000000002</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3200,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-1512.7670000000001</v>
+        <v>-8.1280000000000001</v>
       </c>
       <c r="N31">
-        <v>8650.3610000000008</v>
+        <v>3230.3249999999998</v>
       </c>
       <c r="O31">
-        <v>21551.023000000001</v>
+        <v>8221.3369999999995</v>
       </c>
       <c r="P31">
-        <v>12570.342000000001</v>
+        <v>3409.04</v>
       </c>
       <c r="Q31">
-        <v>-745.25099999999998</v>
+        <v>244.881</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>42460</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>5720.4059999999999</v>
+        <v>970.36500000000001</v>
       </c>
       <c r="U31">
-        <v>2665.6729999999998</v>
+        <v>1441.789</v>
       </c>
       <c r="V31">
-        <v>-398.37599999999998</v>
+        <v>-249.60499999999999</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>371.66</v>
+        <v>715.43499999999995</v>
       </c>
       <c r="Y31">
-        <v>1663.972</v>
+        <v>244.8</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>-709.55100000000004</v>
+        <v>-282.267</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>42551</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-717.53899999999999</v>
+        <v>-293.18799999999999</v>
       </c>
       <c r="D32">
-        <v>4002.2310000000002</v>
+        <v>1270.0170000000001</v>
       </c>
       <c r="E32">
-        <v>569.87400000000002</v>
+        <v>178.59399999999999</v>
       </c>
       <c r="F32">
-        <v>618.92999999999995</v>
+        <v>274.77600000000001</v>
       </c>
       <c r="G32">
-        <v>6699.7969999999996</v>
+        <v>5203.7049999999999</v>
       </c>
       <c r="H32">
-        <v>27910</v>
+        <v>11868.951999999999</v>
       </c>
       <c r="I32">
-        <v>3030.4929999999999</v>
+        <v>1114.8779999999999</v>
       </c>
       <c r="J32">
-        <v>9571.7929999999997</v>
+        <v>2620.002</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3286,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>9141.3619999999992</v>
+        <v>3803.55</v>
       </c>
       <c r="O32">
-        <v>22642.886999999999</v>
+        <v>9348.6579999999994</v>
       </c>
       <c r="P32">
-        <v>13412.246999999999</v>
+        <v>3667.0740000000001</v>
       </c>
       <c r="Q32">
-        <v>-436.47</v>
+        <v>1804.5119999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>42551</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5267.1130000000003</v>
+        <v>2520.2939999999999</v>
       </c>
       <c r="U32">
-        <v>2236.424</v>
+        <v>3246.3009999999999</v>
       </c>
       <c r="V32">
-        <v>-129.66399999999999</v>
+        <v>150.33600000000001</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>398.62200000000001</v>
+        <v>1976.5840000000001</v>
       </c>
       <c r="Y32">
-        <v>1645.9690000000001</v>
+        <v>380.7</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>16.667000000000002</v>
       </c>
       <c r="AA32">
-        <v>-717.53899999999999</v>
+        <v>-293.18799999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>42643</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>311.08999999999997</v>
+        <v>21.878</v>
       </c>
       <c r="D33">
-        <v>6824</v>
+        <v>2298.4360000000001</v>
       </c>
       <c r="E33">
-        <v>1155.001</v>
+        <v>326.89499999999998</v>
       </c>
       <c r="F33">
-        <v>1524</v>
+        <v>636.73500000000001</v>
       </c>
       <c r="G33">
-        <v>7920.491</v>
+        <v>5172.4120000000003</v>
       </c>
       <c r="H33">
-        <v>29262.713</v>
+        <v>12592.397000000001</v>
       </c>
       <c r="I33">
-        <v>3596.9839999999999</v>
+        <v>1606.2840000000001</v>
       </c>
       <c r="J33">
-        <v>9726.5889999999999</v>
+        <v>2443.42</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3369,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>9775.3240000000005</v>
+        <v>4093.66</v>
       </c>
       <c r="O33">
-        <v>23409.144</v>
+        <v>9911.9089999999997</v>
       </c>
       <c r="P33">
-        <v>13564.186</v>
+        <v>3172.261</v>
       </c>
       <c r="Q33">
-        <v>739.721</v>
+        <v>-162.04400000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>42643</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>5853.5690000000004</v>
+        <v>2680.4879999999998</v>
       </c>
       <c r="U33">
-        <v>2967.5039999999999</v>
+        <v>3084.2570000000001</v>
       </c>
       <c r="V33">
-        <v>1391.04</v>
+        <v>423.649</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-84.281999999999996</v>
+        <v>-320.87</v>
       </c>
       <c r="Y33">
-        <v>1622.059</v>
+        <v>454.2</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>311</v>
+        <v>21.878</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>42735</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>140</v>
+        <v>-121.337</v>
       </c>
       <c r="D34">
-        <v>7226</v>
+        <v>2284.6309999999999</v>
       </c>
       <c r="E34">
-        <v>949</v>
+        <v>499.142</v>
       </c>
       <c r="F34">
-        <v>1443</v>
+        <v>435.27800000000002</v>
       </c>
       <c r="G34">
-        <v>8307</v>
+        <v>6259.7960000000003</v>
       </c>
       <c r="H34">
-        <v>29740</v>
+        <v>22664.076000000001</v>
       </c>
       <c r="I34">
-        <v>3405</v>
+        <v>1860.3409999999999</v>
       </c>
       <c r="J34">
-        <v>8461</v>
+        <v>6053.86</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3452,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>9993</v>
+        <v>5835.7889999999998</v>
       </c>
       <c r="O34">
-        <v>23427</v>
+        <v>16758.951000000001</v>
       </c>
       <c r="P34">
-        <v>13828</v>
+        <v>8588.1149999999998</v>
       </c>
       <c r="Q34">
-        <v>754</v>
+        <v>308.959</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>42735</v>
       </c>
       <c r="S34">
-        <v>48817</v>
+        <v>30025</v>
       </c>
       <c r="T34">
-        <v>6313</v>
+        <v>5905.125</v>
       </c>
       <c r="U34">
-        <v>3686</v>
+        <v>3393.2159999999999</v>
       </c>
       <c r="V34">
-        <v>1235</v>
+        <v>-448.209</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-112</v>
+        <v>1372.827</v>
       </c>
       <c r="Y34">
-        <v>2655</v>
+        <v>1323.2929999999999</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>140</v>
+        <v>-121.337</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>42825</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-702</v>
+        <v>-330.27699999999999</v>
       </c>
       <c r="D35">
-        <v>4541</v>
+        <v>2696.27</v>
       </c>
       <c r="E35">
-        <v>1046.9449999999999</v>
+        <v>440.34899999999999</v>
       </c>
       <c r="F35">
-        <v>566</v>
+        <v>667.94600000000003</v>
       </c>
       <c r="G35">
-        <v>7677.8220000000001</v>
+        <v>7027.8890000000001</v>
       </c>
       <c r="H35">
-        <v>28912.524000000001</v>
+        <v>25053.725999999999</v>
       </c>
       <c r="I35">
-        <v>3248.8270000000002</v>
+        <v>2075.3330000000001</v>
       </c>
       <c r="J35">
-        <v>8695.5889999999999</v>
+        <v>7247.3819999999996</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3532,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-2171</v>
+        <v>-799.24800000000005</v>
       </c>
       <c r="N35">
-        <v>9242.7999999999993</v>
+        <v>6252.7219999999998</v>
       </c>
       <c r="O35">
-        <v>22874.617999999999</v>
+        <v>18892.635999999999</v>
       </c>
       <c r="P35">
-        <v>12748.475</v>
+        <v>9667.7260000000006</v>
       </c>
       <c r="Q35">
-        <v>-1594</v>
+        <v>658.86199999999997</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>42825</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>6037.9059999999999</v>
+        <v>6161.09</v>
       </c>
       <c r="U35">
-        <v>2198.1689999999999</v>
+        <v>4006.5929999999998</v>
       </c>
       <c r="V35">
-        <v>-640</v>
+        <v>-69.811000000000007</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-653</v>
+        <v>1598.749</v>
       </c>
       <c r="Y35">
-        <v>2138.8130000000001</v>
+        <v>1398.65</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>-702</v>
+        <v>-330.27699999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>42916</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>-408</v>
+        <v>-336.39699999999999</v>
       </c>
       <c r="D36">
-        <v>6350</v>
+        <v>2789.5569999999998</v>
       </c>
       <c r="E36">
-        <v>1147.0999999999999</v>
+        <v>453.53899999999999</v>
       </c>
       <c r="F36">
-        <v>921</v>
+        <v>666.61500000000001</v>
       </c>
       <c r="G36">
-        <v>10181.951999999999</v>
+        <v>6359.4440000000004</v>
       </c>
       <c r="H36">
-        <v>31872.597000000002</v>
+        <v>26043.705000000002</v>
       </c>
       <c r="I36">
-        <v>3133.587</v>
+        <v>2359.3159999999998</v>
       </c>
       <c r="J36">
-        <v>9950.3960000000006</v>
+        <v>7215.4930000000004</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3618,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>9588.7729999999992</v>
+        <v>6548.0429999999997</v>
       </c>
       <c r="O36">
-        <v>24722.135999999999</v>
+        <v>19461.59</v>
       </c>
       <c r="P36">
-        <v>14320.924000000001</v>
+        <v>9557.4060000000009</v>
       </c>
       <c r="Q36">
-        <v>2766</v>
+        <v>-913.024</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>42916</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>7150.4610000000002</v>
+        <v>6582.1149999999998</v>
       </c>
       <c r="U36">
-        <v>4954.74</v>
+        <v>3035.924</v>
       </c>
       <c r="V36">
-        <v>864</v>
+        <v>-200.172</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>2143</v>
+        <v>428.767</v>
       </c>
       <c r="Y36">
-        <v>2359.3510000000001</v>
+        <v>1511.692</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>-408</v>
+        <v>-336.39699999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>43008</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>143</v>
+        <v>-619.37599999999998</v>
       </c>
       <c r="D37">
-        <v>6303</v>
+        <v>2984.6750000000002</v>
       </c>
       <c r="E37">
-        <v>1128</v>
+        <v>607.73400000000004</v>
       </c>
       <c r="F37">
-        <v>1191</v>
+        <v>449.14</v>
       </c>
       <c r="G37">
-        <v>10940</v>
+        <v>7068.7330000000002</v>
       </c>
       <c r="H37">
-        <v>32795</v>
+        <v>28107.074000000001</v>
       </c>
       <c r="I37">
-        <v>3468</v>
+        <v>2385.7779999999998</v>
       </c>
       <c r="J37">
-        <v>10138</v>
+        <v>9656.4750000000004</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3701,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>10146</v>
+        <v>6469.2969999999996</v>
       </c>
       <c r="O37">
-        <v>25313</v>
+        <v>21929.414000000001</v>
       </c>
       <c r="P37">
-        <v>14636</v>
+        <v>11720.148999999999</v>
       </c>
       <c r="Q37">
-        <v>377</v>
+        <v>564.01700000000005</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>43008</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>7482</v>
+        <v>6177.66</v>
       </c>
       <c r="U37">
-        <v>5338</v>
+        <v>3530.03</v>
       </c>
       <c r="V37">
-        <v>756</v>
+        <v>-300.56200000000001</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>118</v>
+        <v>2101.5059999999999</v>
       </c>
       <c r="Y37">
-        <v>2245</v>
+        <v>1621.5930000000001</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>143</v>
+        <v>-619.37599999999998</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>43100</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>105</v>
+        <v>-675.35</v>
       </c>
       <c r="D38">
-        <v>7384</v>
+        <v>3288.2489999999998</v>
       </c>
       <c r="E38">
-        <v>1324</v>
+        <v>515.38099999999997</v>
       </c>
       <c r="F38">
-        <v>1391</v>
+        <v>438.786</v>
       </c>
       <c r="G38">
-        <v>12103</v>
+        <v>6570.52</v>
       </c>
       <c r="H38">
-        <v>34309</v>
+        <v>28655.371999999999</v>
       </c>
       <c r="I38">
-        <v>3771</v>
+        <v>2390.25</v>
       </c>
       <c r="J38">
-        <v>10375</v>
+        <v>9486.2479999999996</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3784,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>10667</v>
+        <v>7674.74</v>
       </c>
       <c r="O38">
-        <v>26199</v>
+        <v>23023.05</v>
       </c>
       <c r="P38">
-        <v>14576</v>
+        <v>12130.862999999999</v>
       </c>
       <c r="Q38">
-        <v>957</v>
+        <v>-111.79600000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>43100</v>
       </c>
       <c r="S38">
-        <v>48016</v>
+        <v>37543</v>
       </c>
       <c r="T38">
-        <v>8110</v>
+        <v>5632.3220000000001</v>
       </c>
       <c r="U38">
-        <v>6268</v>
+        <v>3367.9140000000002</v>
       </c>
       <c r="V38">
-        <v>1425</v>
+        <v>509.89100000000002</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-79</v>
+        <v>285.84199999999998</v>
       </c>
       <c r="Y38">
-        <v>2188</v>
+        <v>1665.768</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>105</v>
+        <v>-675.35</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>43190</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>-709.55100000000004</v>
       </c>
       <c r="D39">
-        <v>5985</v>
+        <v>3408.7510000000002</v>
       </c>
       <c r="E39">
-        <v>1274</v>
+        <v>652.84799999999996</v>
       </c>
       <c r="F39">
-        <v>1234</v>
+        <v>456.52600000000001</v>
       </c>
       <c r="G39">
-        <v>14893</v>
+        <v>6383.92</v>
       </c>
       <c r="H39">
-        <v>37250</v>
+        <v>27271.429</v>
       </c>
       <c r="I39">
-        <v>3970</v>
+        <v>2603.498</v>
       </c>
       <c r="J39">
-        <v>9573</v>
+        <v>8821.0380000000005</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3864,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-2515</v>
+        <v>-1512.7670000000001</v>
       </c>
       <c r="N39">
-        <v>11986</v>
+        <v>8650.3610000000008</v>
       </c>
       <c r="O39">
-        <v>26578</v>
+        <v>21551.023000000001</v>
       </c>
       <c r="P39">
-        <v>15200</v>
+        <v>12570.342000000001</v>
       </c>
       <c r="Q39">
-        <v>1764</v>
+        <v>-745.25099999999998</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>43190</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>10672</v>
+        <v>5720.4059999999999</v>
       </c>
       <c r="U39">
-        <v>8080</v>
+        <v>2665.6729999999998</v>
       </c>
       <c r="V39">
-        <v>-440</v>
+        <v>-398.37599999999998</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>2708</v>
+        <v>371.66</v>
       </c>
       <c r="Y39">
-        <v>2128</v>
+        <v>1663.972</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>16</v>
+        <v>-709.55100000000004</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>43281</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>104</v>
+        <v>-717.53899999999999</v>
       </c>
       <c r="D40">
-        <v>6036</v>
+        <v>4002.2310000000002</v>
       </c>
       <c r="E40">
-        <v>1495</v>
+        <v>569.87400000000002</v>
       </c>
       <c r="F40">
-        <v>1267</v>
+        <v>618.92999999999995</v>
       </c>
       <c r="G40">
-        <v>15336</v>
+        <v>6699.7969999999996</v>
       </c>
       <c r="H40">
-        <v>38135</v>
+        <v>27910</v>
       </c>
       <c r="I40">
-        <v>3638</v>
+        <v>3030.4929999999999</v>
       </c>
       <c r="J40">
-        <v>9333</v>
+        <v>9571.7929999999997</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +3950,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>12270</v>
+        <v>9141.3619999999992</v>
       </c>
       <c r="O40">
-        <v>26798</v>
+        <v>22642.886999999999</v>
       </c>
       <c r="P40">
-        <v>15477</v>
+        <v>13412.246999999999</v>
       </c>
       <c r="Q40">
-        <v>559</v>
+        <v>-436.47</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>43281</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>11337</v>
+        <v>5267.1130000000003</v>
       </c>
       <c r="U40">
-        <v>8615</v>
+        <v>2236.424</v>
       </c>
       <c r="V40">
-        <v>964</v>
+        <v>-129.66399999999999</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>123</v>
+        <v>398.62200000000001</v>
       </c>
       <c r="Y40">
-        <v>2185</v>
+        <v>1645.9690000000001</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>104</v>
+        <v>-717.53899999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>43373</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>331</v>
+        <v>311.08999999999997</v>
       </c>
       <c r="D41">
-        <v>8771</v>
+        <v>6824</v>
       </c>
       <c r="E41">
-        <v>1766</v>
+        <v>1155.001</v>
       </c>
       <c r="F41">
-        <v>2063</v>
+        <v>1524</v>
       </c>
       <c r="G41">
-        <v>21744</v>
+        <v>7920.491</v>
       </c>
       <c r="H41">
-        <v>45691</v>
+        <v>29262.713</v>
       </c>
       <c r="I41">
-        <v>4958</v>
+        <v>3596.9839999999999</v>
       </c>
       <c r="J41">
-        <v>9506</v>
+        <v>9726.5889999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4033,792 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>13302</v>
+        <v>9775.3240000000005</v>
       </c>
       <c r="O41">
-        <v>28191</v>
+        <v>23409.144</v>
       </c>
       <c r="P41">
-        <v>15163</v>
+        <v>13564.186</v>
       </c>
       <c r="Q41">
-        <v>5897</v>
+        <v>739.721</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>43373</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>17500</v>
+        <v>5853.5690000000004</v>
       </c>
       <c r="U41">
-        <v>14531</v>
+        <v>2967.5039999999999</v>
       </c>
       <c r="V41">
-        <v>2400</v>
+        <v>1391.04</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>4450</v>
+        <v>-84.281999999999996</v>
       </c>
       <c r="Y41">
-        <v>2232</v>
+        <v>1622.059</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>43465</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>140</v>
+      </c>
+      <c r="D42">
+        <v>7226</v>
+      </c>
+      <c r="E42">
+        <v>949</v>
+      </c>
+      <c r="F42">
+        <v>1443</v>
+      </c>
+      <c r="G42">
+        <v>8307</v>
+      </c>
+      <c r="H42">
+        <v>29740</v>
+      </c>
+      <c r="I42">
+        <v>3405</v>
+      </c>
+      <c r="J42">
+        <v>8461</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>9993</v>
+      </c>
+      <c r="O42">
+        <v>23427</v>
+      </c>
+      <c r="P42">
+        <v>13828</v>
+      </c>
+      <c r="Q42">
+        <v>754</v>
+      </c>
+      <c r="R42">
+        <v>43465</v>
+      </c>
+      <c r="S42">
+        <v>48817</v>
+      </c>
+      <c r="T42">
+        <v>6313</v>
+      </c>
+      <c r="U42">
+        <v>3686</v>
+      </c>
+      <c r="V42">
+        <v>1235</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-112</v>
+      </c>
+      <c r="Y42">
+        <v>2655</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-702</v>
+      </c>
+      <c r="D43">
+        <v>4541</v>
+      </c>
+      <c r="E43">
+        <v>1046.9449999999999</v>
+      </c>
+      <c r="F43">
+        <v>566</v>
+      </c>
+      <c r="G43">
+        <v>7677.8220000000001</v>
+      </c>
+      <c r="H43">
+        <v>28912.524000000001</v>
+      </c>
+      <c r="I43">
+        <v>3248.8270000000002</v>
+      </c>
+      <c r="J43">
+        <v>8695.5889999999999</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-2171</v>
+      </c>
+      <c r="N43">
+        <v>9242.7999999999993</v>
+      </c>
+      <c r="O43">
+        <v>22874.617999999999</v>
+      </c>
+      <c r="P43">
+        <v>12748.475</v>
+      </c>
+      <c r="Q43">
+        <v>-1594</v>
+      </c>
+      <c r="R43">
+        <v>43555</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>6037.9059999999999</v>
+      </c>
+      <c r="U43">
+        <v>2198.1689999999999</v>
+      </c>
+      <c r="V43">
+        <v>-640</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-653</v>
+      </c>
+      <c r="Y43">
+        <v>2138.8130000000001</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>-702</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-408</v>
+      </c>
+      <c r="D44">
+        <v>6350</v>
+      </c>
+      <c r="E44">
+        <v>1147.0999999999999</v>
+      </c>
+      <c r="F44">
+        <v>921</v>
+      </c>
+      <c r="G44">
+        <v>10181.951999999999</v>
+      </c>
+      <c r="H44">
+        <v>31872.597000000002</v>
+      </c>
+      <c r="I44">
+        <v>3133.587</v>
+      </c>
+      <c r="J44">
+        <v>9950.3960000000006</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>9588.7729999999992</v>
+      </c>
+      <c r="O44">
+        <v>24722.135999999999</v>
+      </c>
+      <c r="P44">
+        <v>14320.924000000001</v>
+      </c>
+      <c r="Q44">
+        <v>2766</v>
+      </c>
+      <c r="R44">
+        <v>43646</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>7150.4610000000002</v>
+      </c>
+      <c r="U44">
+        <v>4954.74</v>
+      </c>
+      <c r="V44">
+        <v>864</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>2143</v>
+      </c>
+      <c r="Y44">
+        <v>2359.3510000000001</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>143</v>
+      </c>
+      <c r="D45">
+        <v>6303</v>
+      </c>
+      <c r="E45">
+        <v>1128</v>
+      </c>
+      <c r="F45">
+        <v>1191</v>
+      </c>
+      <c r="G45">
+        <v>10940</v>
+      </c>
+      <c r="H45">
+        <v>32795</v>
+      </c>
+      <c r="I45">
+        <v>3468</v>
+      </c>
+      <c r="J45">
+        <v>10138</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>10146</v>
+      </c>
+      <c r="O45">
+        <v>25313</v>
+      </c>
+      <c r="P45">
+        <v>14636</v>
+      </c>
+      <c r="Q45">
+        <v>377</v>
+      </c>
+      <c r="R45">
+        <v>43738</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>7482</v>
+      </c>
+      <c r="U45">
+        <v>5338</v>
+      </c>
+      <c r="V45">
+        <v>756</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>118</v>
+      </c>
+      <c r="Y45">
+        <v>2245</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>105</v>
+      </c>
+      <c r="D46">
+        <v>7384</v>
+      </c>
+      <c r="E46">
+        <v>1324</v>
+      </c>
+      <c r="F46">
+        <v>1391</v>
+      </c>
+      <c r="G46">
+        <v>12103</v>
+      </c>
+      <c r="H46">
+        <v>34309</v>
+      </c>
+      <c r="I46">
+        <v>3771</v>
+      </c>
+      <c r="J46">
+        <v>10375</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>10667</v>
+      </c>
+      <c r="O46">
+        <v>26199</v>
+      </c>
+      <c r="P46">
+        <v>14576</v>
+      </c>
+      <c r="Q46">
+        <v>957</v>
+      </c>
+      <c r="R46">
+        <v>43830</v>
+      </c>
+      <c r="S46">
+        <v>48016</v>
+      </c>
+      <c r="T46">
+        <v>8110</v>
+      </c>
+      <c r="U46">
+        <v>6268</v>
+      </c>
+      <c r="V46">
+        <v>1425</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-79</v>
+      </c>
+      <c r="Y46">
+        <v>2188</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>5985</v>
+      </c>
+      <c r="E47">
+        <v>1274</v>
+      </c>
+      <c r="F47">
+        <v>1234</v>
+      </c>
+      <c r="G47">
+        <v>14893</v>
+      </c>
+      <c r="H47">
+        <v>37250</v>
+      </c>
+      <c r="I47">
+        <v>3970</v>
+      </c>
+      <c r="J47">
+        <v>9573</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-2515</v>
+      </c>
+      <c r="N47">
+        <v>11986</v>
+      </c>
+      <c r="O47">
+        <v>26578</v>
+      </c>
+      <c r="P47">
+        <v>15200</v>
+      </c>
+      <c r="Q47">
+        <v>1764</v>
+      </c>
+      <c r="R47">
+        <v>43921</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>10672</v>
+      </c>
+      <c r="U47">
+        <v>8080</v>
+      </c>
+      <c r="V47">
+        <v>-440</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>2708</v>
+      </c>
+      <c r="Y47">
+        <v>2128</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>104</v>
+      </c>
+      <c r="D48">
+        <v>6036</v>
+      </c>
+      <c r="E48">
+        <v>1495</v>
+      </c>
+      <c r="F48">
+        <v>1267</v>
+      </c>
+      <c r="G48">
+        <v>15336</v>
+      </c>
+      <c r="H48">
+        <v>38135</v>
+      </c>
+      <c r="I48">
+        <v>3638</v>
+      </c>
+      <c r="J48">
+        <v>9333</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>12270</v>
+      </c>
+      <c r="O48">
+        <v>26798</v>
+      </c>
+      <c r="P48">
+        <v>15477</v>
+      </c>
+      <c r="Q48">
+        <v>559</v>
+      </c>
+      <c r="R48">
+        <v>44012</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>11337</v>
+      </c>
+      <c r="U48">
+        <v>8615</v>
+      </c>
+      <c r="V48">
+        <v>964</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>123</v>
+      </c>
+      <c r="Y48">
+        <v>2185</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>331</v>
+      </c>
+      <c r="D49">
+        <v>8771</v>
+      </c>
+      <c r="E49">
+        <v>1766</v>
+      </c>
+      <c r="F49">
+        <v>2063</v>
+      </c>
+      <c r="G49">
+        <v>21744</v>
+      </c>
+      <c r="H49">
+        <v>45691</v>
+      </c>
+      <c r="I49">
+        <v>4958</v>
+      </c>
+      <c r="J49">
+        <v>9506</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>13302</v>
+      </c>
+      <c r="O49">
+        <v>28191</v>
+      </c>
+      <c r="P49">
+        <v>15163</v>
+      </c>
+      <c r="Q49">
+        <v>5897</v>
+      </c>
+      <c r="R49">
+        <v>44104</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>17500</v>
+      </c>
+      <c r="U49">
+        <v>14531</v>
+      </c>
+      <c r="V49">
+        <v>2400</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>4450</v>
+      </c>
+      <c r="Y49">
+        <v>2232</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
         <v>270</v>
       </c>
-      <c r="D42">
+      <c r="D50">
         <v>10744</v>
       </c>
-      <c r="E42">
+      <c r="E50">
         <v>1903</v>
       </c>
-      <c r="F42">
+      <c r="F50">
         <v>2066</v>
       </c>
-      <c r="G42">
+      <c r="G50">
         <v>26717</v>
       </c>
-      <c r="H42">
+      <c r="H50">
         <v>52148</v>
       </c>
-      <c r="I42">
+      <c r="I50">
         <v>6051</v>
       </c>
-      <c r="J42">
+      <c r="J50">
         <v>8571</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
         <v>14248</v>
       </c>
-      <c r="O42">
+      <c r="O50">
         <v>28469</v>
       </c>
-      <c r="P42">
+      <c r="P50">
         <v>13337</v>
       </c>
-      <c r="Q42">
+      <c r="Q50">
         <v>4898</v>
       </c>
-      <c r="R42">
+      <c r="R50">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S50">
         <v>70757</v>
       </c>
-      <c r="T42">
+      <c r="T50">
         <v>23679</v>
       </c>
-      <c r="U42">
+      <c r="U50">
         <v>19384</v>
       </c>
-      <c r="V42">
+      <c r="V50">
         <v>3019</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
         <v>2692</v>
       </c>
-      <c r="Y42">
+      <c r="Y50">
         <v>2348</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
         <v>270</v>
       </c>
     </row>
